--- a/64-units/64-output_df_test.xlsx
+++ b/64-units/64-output_df_test.xlsx
@@ -464,13 +464,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2.094932556152344</v>
+        <v>0.002761328592896461</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4.388742414826993</v>
+        <v>7.624935597947552e-06</v>
       </c>
     </row>
     <row r="3">
@@ -481,13 +481,13 @@
         <v>0.005383</v>
       </c>
       <c r="C3" t="n">
-        <v>1.815905570983887</v>
+        <v>0.02863688208162785</v>
       </c>
       <c r="D3" t="n">
         <v>0.01039000138827146</v>
       </c>
       <c r="E3" t="n">
-        <v>3.259886472052179</v>
+        <v>0.000332948655037582</v>
       </c>
     </row>
     <row r="4">
@@ -498,13 +498,13 @@
         <v>0.010766</v>
       </c>
       <c r="C4" t="n">
-        <v>1.00420868396759</v>
+        <v>0.08823304623365402</v>
       </c>
       <c r="D4" t="n">
         <v>0.07090817555180537</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8710498390091627</v>
+        <v>0.000300151144142779</v>
       </c>
     </row>
     <row r="5">
@@ -515,13 +515,13 @@
         <v>0.016149</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3205604255199432</v>
+        <v>0.1550333201885223</v>
       </c>
       <c r="D5" t="n">
         <v>0.1551886092794283</v>
       </c>
       <c r="E5" t="n">
-        <v>0.02734783760668664</v>
+        <v>2.411470175439713e-08</v>
       </c>
     </row>
     <row r="6">
@@ -532,13 +532,13 @@
         <v>0.021532</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2140161246061325</v>
+        <v>0.2208062708377838</v>
       </c>
       <c r="D6" t="n">
         <v>0.2194337569956537</v>
       </c>
       <c r="E6" t="n">
-        <v>2.935074070798917e-05</v>
+        <v>1.88379424683875e-06</v>
       </c>
     </row>
     <row r="7">
@@ -549,13 +549,13 @@
         <v>0.026915</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6126664280891418</v>
+        <v>0.2401948571205139</v>
       </c>
       <c r="D7" t="n">
         <v>0.2381569179248022</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1402573732035336</v>
+        <v>4.153196165418105e-06</v>
       </c>
     </row>
     <row r="8">
@@ -566,13 +566,13 @@
         <v>0.032782</v>
       </c>
       <c r="C8" t="n">
-        <v>1.260950326919556</v>
+        <v>0.232613742351532</v>
       </c>
       <c r="D8" t="n">
         <v>0.232077797519008</v>
       </c>
       <c r="E8" t="n">
-        <v>1.058578681755081</v>
+        <v>2.872368635091536e-07</v>
       </c>
     </row>
     <row r="9">
@@ -583,13 +583,13 @@
         <v>0.038648</v>
       </c>
       <c r="C9" t="n">
-        <v>1.792110323905945</v>
+        <v>0.2089240252971649</v>
       </c>
       <c r="D9" t="n">
         <v>0.2089625726146107</v>
       </c>
       <c r="E9" t="n">
-        <v>2.506356802418808</v>
+        <v>1.485895682266642e-09</v>
       </c>
     </row>
     <row r="10">
@@ -600,13 +600,13 @@
         <v>0.044515</v>
       </c>
       <c r="C10" t="n">
-        <v>1.62346088886261</v>
+        <v>0.1794425249099731</v>
       </c>
       <c r="D10" t="n">
         <v>0.1821374471894741</v>
       </c>
       <c r="E10" t="n">
-        <v>2.077413263516493</v>
+        <v>7.262606092550685e-06</v>
       </c>
     </row>
     <row r="11">
@@ -617,13 +617,13 @@
         <v>0.050382</v>
       </c>
       <c r="C11" t="n">
-        <v>1.003701329231262</v>
+        <v>0.1519889533519745</v>
       </c>
       <c r="D11" t="n">
         <v>0.1570633671496917</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7167958388376348</v>
+        <v>2.574967539046295e-05</v>
       </c>
     </row>
     <row r="12">
@@ -634,13 +634,13 @@
         <v>0.056248</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6723934412002563</v>
+        <v>0.1294975578784943</v>
       </c>
       <c r="D12" t="n">
         <v>0.1351141714939549</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2886690136561366</v>
+        <v>3.154634850537792e-05</v>
       </c>
     </row>
     <row r="13">
@@ -651,13 +651,13 @@
         <v>0.062625</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4854695796966553</v>
+        <v>0.1068046316504478</v>
       </c>
       <c r="D13" t="n">
         <v>0.1151924094307864</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1371051828200993</v>
+        <v>7.03548160923412e-05</v>
       </c>
     </row>
     <row r="14">
@@ -668,13 +668,13 @@
         <v>0.06900299999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0768919438123703</v>
+        <v>0.08951877802610397</v>
       </c>
       <c r="D14" t="n">
         <v>0.09898995712650538</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0004883221924316913</v>
+        <v>8.970323355188038e-05</v>
       </c>
     </row>
     <row r="15">
@@ -685,13 +685,13 @@
         <v>0.07537999999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.05262089893221855</v>
+        <v>0.0793762132525444</v>
       </c>
       <c r="D15" t="n">
         <v>0.08624194975175113</v>
       </c>
       <c r="E15" t="n">
-        <v>0.01928289074462707</v>
+        <v>4.713833767653947e-05</v>
       </c>
     </row>
     <row r="16">
@@ -702,13 +702,13 @@
         <v>0.08175700000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.1464779824018478</v>
+        <v>0.06945972889661789</v>
       </c>
       <c r="D16" t="n">
         <v>0.07618502156745835</v>
       </c>
       <c r="E16" t="n">
-        <v>0.04957881333663526</v>
+        <v>4.522956150846041e-05</v>
       </c>
     </row>
     <row r="17">
@@ -719,13 +719,13 @@
         <v>0.088134</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.27983158826828</v>
+        <v>0.06072453409433365</v>
       </c>
       <c r="D17" t="n">
         <v>0.06782424144092992</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1208645759307992</v>
+        <v>5.040584440731314e-05</v>
       </c>
     </row>
     <row r="18">
@@ -736,13 +736,13 @@
         <v>0.09504700000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.3153043389320374</v>
+        <v>0.05502075701951981</v>
       </c>
       <c r="D18" t="n">
         <v>0.06047524504006395</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1412102957302455</v>
+        <v>2.975143956625956e-05</v>
       </c>
     </row>
     <row r="19">
@@ -753,13 +753,13 @@
         <v>0.10196</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.1724638491868973</v>
+        <v>0.04986510425806046</v>
       </c>
       <c r="D19" t="n">
         <v>0.05449483680408607</v>
       </c>
       <c r="E19" t="n">
-        <v>0.05151024514675378</v>
+        <v>2.143442344772885e-05</v>
       </c>
     </row>
     <row r="20">
@@ -770,13 +770,13 @@
         <v>0.10887</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.1059091836214066</v>
+        <v>0.04587738215923309</v>
       </c>
       <c r="D20" t="n">
         <v>0.04969382716130066</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0242122969646433</v>
+        <v>1.456525245380653e-05</v>
       </c>
     </row>
     <row r="21">
@@ -787,13 +787,13 @@
         <v>0.11578</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.05250970646739006</v>
+        <v>0.04229224473237991</v>
       </c>
       <c r="D21" t="n">
         <v>0.04578871878359028</v>
       </c>
       <c r="E21" t="n">
-        <v>0.009662580406822569</v>
+        <v>1.222533079078745e-05</v>
       </c>
     </row>
     <row r="22">
@@ -804,13 +804,13 @@
         <v>0.1227</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.01582865230739117</v>
+        <v>0.03900907188653946</v>
       </c>
       <c r="D22" t="n">
         <v>0.04248230373476976</v>
       </c>
       <c r="E22" t="n">
-        <v>0.003400167594550823</v>
+        <v>1.206333947156126e-05</v>
       </c>
     </row>
     <row r="23">
@@ -821,13 +821,13 @@
         <v>0.13017</v>
       </c>
       <c r="C23" t="n">
-        <v>0.02740703709423542</v>
+        <v>0.0359860360622406</v>
       </c>
       <c r="D23" t="n">
         <v>0.03932673220874238</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0001420791316228011</v>
+        <v>1.116025074325184e-05</v>
       </c>
     </row>
     <row r="24">
@@ -838,13 +838,13 @@
         <v>0.13764</v>
       </c>
       <c r="C24" t="n">
-        <v>0.03863011673092842</v>
+        <v>0.03335424512624741</v>
       </c>
       <c r="D24" t="n">
         <v>0.03667430244907003</v>
       </c>
       <c r="E24" t="n">
-        <v>3.825209505121254e-06</v>
+        <v>1.102278062682813e-05</v>
       </c>
     </row>
     <row r="25">
@@ -855,13 +855,13 @@
         <v>0.14511</v>
       </c>
       <c r="C25" t="n">
-        <v>0.05428003147244453</v>
+        <v>0.03123619593679905</v>
       </c>
       <c r="D25" t="n">
         <v>0.03444053659203948</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0003936055571096183</v>
+        <v>1.026779903482668e-05</v>
       </c>
     </row>
     <row r="26">
@@ -872,13 +872,13 @@
         <v>0.15258</v>
       </c>
       <c r="C26" t="n">
-        <v>0.07362432777881622</v>
+        <v>0.02924098260700703</v>
       </c>
       <c r="D26" t="n">
         <v>0.03254163445349085</v>
       </c>
       <c r="E26" t="n">
-        <v>0.001687787690862734</v>
+        <v>1.089430261169706e-05</v>
       </c>
     </row>
     <row r="27">
@@ -889,13 +889,13 @@
         <v>0.16005</v>
       </c>
       <c r="C27" t="n">
-        <v>0.09800331294536591</v>
+        <v>0.02738777734339237</v>
       </c>
       <c r="D27" t="n">
         <v>0.03087508613872102</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004506198834204358</v>
+        <v>1.216132263397655e-05</v>
       </c>
     </row>
     <row r="28">
@@ -906,13 +906,13 @@
         <v>0.16809</v>
       </c>
       <c r="C28" t="n">
-        <v>0.08530212938785553</v>
+        <v>0.0255733672529459</v>
       </c>
       <c r="D28" t="n">
         <v>0.02917532250083574</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003150218451332812</v>
+        <v>1.297408160780117e-05</v>
       </c>
     </row>
     <row r="29">
@@ -923,13 +923,13 @@
         <v>0.17614</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0731300413608551</v>
+        <v>0.02391564287245274</v>
       </c>
       <c r="D29" t="n">
         <v>0.02768193105790962</v>
       </c>
       <c r="E29" t="n">
-        <v>0.002065530730108699</v>
+        <v>1.418492669591212e-05</v>
       </c>
     </row>
     <row r="30">
@@ -940,13 +940,13 @@
         <v>0.18418</v>
       </c>
       <c r="C30" t="n">
-        <v>0.04630159214138985</v>
+        <v>0.02252028323709965</v>
       </c>
       <c r="D30" t="n">
         <v>0.02636559377428162</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0003974440308933419</v>
+        <v>1.478641312736272e-05</v>
       </c>
     </row>
     <row r="31">
@@ -957,13 +957,13 @@
         <v>0.19223</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01349716074764729</v>
+        <v>0.02030781842768192</v>
       </c>
       <c r="D31" t="n">
         <v>0.02522142912739482</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0001374584690403479</v>
+        <v>2.414357010833307e-05</v>
       </c>
     </row>
     <row r="32">
@@ -974,13 +974,13 @@
         <v>0.20028</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.02800921909511089</v>
+        <v>0.01859023608267307</v>
       </c>
       <c r="D32" t="n">
         <v>0.02422735568118357</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002728659744359403</v>
+        <v>3.177711736791115e-05</v>
       </c>
     </row>
     <row r="33">
@@ -991,13 +991,13 @@
         <v>0.20891</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.08057522773742676</v>
+        <v>0.01764740981161594</v>
       </c>
       <c r="D33" t="n">
         <v>0.02321902946616803</v>
       </c>
       <c r="E33" t="n">
-        <v>0.01077324782844599</v>
+        <v>3.104294557499111e-05</v>
       </c>
     </row>
     <row r="34">
@@ -1008,13 +1008,13 @@
         <v>0.21755</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.1210367530584335</v>
+        <v>0.01677941717207432</v>
       </c>
       <c r="D34" t="n">
         <v>0.02229139752729517</v>
       </c>
       <c r="E34" t="n">
-        <v>0.02054295875032532</v>
+        <v>3.038192743634059e-05</v>
       </c>
     </row>
     <row r="35">
@@ -1025,13 +1025,13 @@
         <v>0.22618</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.1615091413259506</v>
+        <v>0.01607503928244114</v>
       </c>
       <c r="D35" t="n">
         <v>0.02142267097375047</v>
       </c>
       <c r="E35" t="n">
-        <v>0.03346404795125307</v>
+        <v>2.85971647058959e-05</v>
       </c>
     </row>
     <row r="36">
@@ -1042,13 +1042,13 @@
         <v>0.23482</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.2032126635313034</v>
+        <v>0.0153441671282053</v>
       </c>
       <c r="D36" t="n">
         <v>0.02061125282591447</v>
       </c>
       <c r="E36" t="n">
-        <v>0.05009714553348286</v>
+        <v>2.774219174701249e-05</v>
       </c>
     </row>
     <row r="37">
@@ -1059,13 +1059,13 @@
         <v>0.24345</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.2323296219110489</v>
+        <v>0.01458441652357578</v>
       </c>
       <c r="D37" t="n">
         <v>0.01985002784573097</v>
       </c>
       <c r="E37" t="n">
-        <v>0.06359457575145216</v>
+        <v>2.772666259600891e-05</v>
       </c>
     </row>
     <row r="38">
@@ -1076,13 +1076,13 @@
         <v>0.25269</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.2478993982076645</v>
+        <v>0.01384889520704746</v>
       </c>
       <c r="D38" t="n">
         <v>0.01905841476595632</v>
       </c>
       <c r="E38" t="n">
-        <v>0.07126647390765871</v>
+        <v>2.713909403465392e-05</v>
       </c>
     </row>
     <row r="39">
@@ -1093,13 +1093,13 @@
         <v>0.26192</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.2778267562389374</v>
+        <v>0.01315509714186192</v>
       </c>
       <c r="D39" t="n">
         <v>0.01833416552662</v>
       </c>
       <c r="E39" t="n">
-        <v>0.08771129158102459</v>
+        <v>2.682274933400072e-05</v>
       </c>
     </row>
     <row r="40">
@@ -1110,13 +1110,13 @@
         <v>0.27115</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.3318678140640259</v>
+        <v>0.01258095540106297</v>
       </c>
       <c r="D40" t="n">
         <v>0.01766175674741388</v>
       </c>
       <c r="E40" t="n">
-        <v>0.1221709208716293</v>
+        <v>2.581454232108128e-05</v>
       </c>
     </row>
     <row r="41">
@@ -1127,13 +1127,13 @@
         <v>0.28038</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.3755528330802917</v>
+        <v>0.0119438711553812</v>
       </c>
       <c r="D41" t="n">
         <v>0.01703297431285461</v>
       </c>
       <c r="E41" t="n">
-        <v>0.1541236161665286</v>
+        <v>2.58989709474058e-05</v>
       </c>
     </row>
     <row r="42">
@@ -1144,13 +1144,13 @@
         <v>0.28961</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.4018473029136658</v>
+        <v>0.01130571402609348</v>
       </c>
       <c r="D42" t="n">
         <v>0.0164305058220557</v>
       </c>
       <c r="E42" t="n">
-        <v>0.1749563252807568</v>
+        <v>2.626349095196164e-05</v>
       </c>
     </row>
     <row r="43">
@@ -1161,13 +1161,13 @@
         <v>0.29945</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.4014257192611694</v>
+        <v>0.01074760593473911</v>
       </c>
       <c r="D43" t="n">
         <v>0.01573081698321859</v>
       </c>
       <c r="E43" t="n">
-        <v>0.1740195757314154</v>
+        <v>2.483239235368795e-05</v>
       </c>
     </row>
     <row r="44">
@@ -1178,13 +1178,13 @@
         <v>0.30928</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.3685512542724609</v>
+        <v>0.01020007766783237</v>
       </c>
       <c r="D44" t="n">
         <v>0.01503124143095429</v>
       </c>
       <c r="E44" t="n">
-        <v>0.1471355310100606</v>
+        <v>2.334014330610231e-05</v>
       </c>
     </row>
     <row r="45">
@@ -1195,13 +1195,13 @@
         <v>0.31911</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.3235306739807129</v>
+        <v>0.009695852175354958</v>
       </c>
       <c r="D45" t="n">
         <v>0.01435199675106484</v>
       </c>
       <c r="E45" t="n">
-        <v>0.1141646991808389</v>
+        <v>2.167968230991256e-05</v>
       </c>
     </row>
     <row r="46">
@@ -1212,13 +1212,13 @@
         <v>0.32894</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.2828494310379028</v>
+        <v>0.009062791243195534</v>
       </c>
       <c r="D46" t="n">
         <v>0.01372373333200477</v>
       </c>
       <c r="E46" t="n">
-        <v>0.08795564182438023</v>
+        <v>2.17243811552334e-05</v>
       </c>
     </row>
     <row r="47">
@@ -1229,13 +1229,13 @@
         <v>0.33877</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.2237364798784256</v>
+        <v>0.008391881361603737</v>
       </c>
       <c r="D47" t="n">
         <v>0.01316267802790205</v>
       </c>
       <c r="E47" t="n">
-        <v>0.05612121101672717</v>
+        <v>2.276050083116309e-05</v>
       </c>
     </row>
     <row r="48">
@@ -1246,13 +1246,13 @@
         <v>0.34919</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.1749054938554764</v>
+        <v>0.007698321714997292</v>
       </c>
       <c r="D48" t="n">
         <v>0.01259800172015396</v>
       </c>
       <c r="E48" t="n">
-        <v>0.03515756085308043</v>
+        <v>2.400686415293205e-05</v>
       </c>
     </row>
     <row r="49">
@@ -1263,13 +1263,13 @@
         <v>0.35961</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.1142795830965042</v>
+        <v>0.007062042132019997</v>
       </c>
       <c r="D49" t="n">
         <v>0.01209225904637843</v>
       </c>
       <c r="E49" t="n">
-        <v>0.01596984248658565</v>
+        <v>2.530308220549768e-05</v>
       </c>
     </row>
     <row r="50">
@@ -1280,13 +1280,13 @@
         <v>0.37004</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.06664641201496124</v>
+        <v>0.006576502695679665</v>
       </c>
       <c r="D50" t="n">
         <v>0.01162567940867849</v>
       </c>
       <c r="E50" t="n">
-        <v>0.006126520295830617</v>
+        <v>2.549418547908962e-05</v>
       </c>
     </row>
     <row r="51">
@@ -1297,13 +1297,13 @@
         <v>0.38046</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.06057364866137505</v>
+        <v>0.006044769659638405</v>
       </c>
       <c r="D51" t="n">
         <v>0.01119307155525773</v>
       </c>
       <c r="E51" t="n">
-        <v>0.005150462130652447</v>
+        <v>2.650501240843753e-05</v>
       </c>
     </row>
     <row r="52">
@@ -1314,13 +1314,13 @@
         <v>0.39088</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.04327369853854179</v>
+        <v>0.005427742376923561</v>
       </c>
       <c r="D52" t="n">
         <v>0.01078484525532466</v>
       </c>
       <c r="E52" t="n">
-        <v>0.002922326157113377</v>
+        <v>2.869855124977334e-05</v>
       </c>
     </row>
     <row r="53">
@@ -1331,13 +1331,13 @@
         <v>0.40188</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.01456321589648724</v>
+        <v>0.004826122894883156</v>
       </c>
       <c r="D53" t="n">
         <v>0.01034557013215292</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0006204476214205789</v>
+        <v>3.046429780500484e-05</v>
       </c>
     </row>
     <row r="54">
@@ -1348,13 +1348,13 @@
         <v>0.41288</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.08184172213077545</v>
+        <v>0.004224920645356178</v>
       </c>
       <c r="D54" t="n">
         <v>0.009931360496498674</v>
       </c>
       <c r="E54" t="n">
-        <v>0.008422298694912483</v>
+        <v>3.256345577470719e-05</v>
       </c>
     </row>
     <row r="55">
@@ -1365,13 +1365,13 @@
         <v>0.42388</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.0163195263594389</v>
+        <v>0.003715241327881813</v>
       </c>
       <c r="D55" t="n">
         <v>0.009551130316090312</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0006692908768231039</v>
+        <v>3.405760028269321e-05</v>
       </c>
     </row>
     <row r="56">
@@ -1382,13 +1382,13 @@
         <v>0.43488</v>
       </c>
       <c r="C56" t="n">
-        <v>0.007109271362423897</v>
+        <v>0.003134841099381447</v>
       </c>
       <c r="D56" t="n">
         <v>0.009217484435503598</v>
       </c>
       <c r="E56" t="n">
-        <v>4.444562361504158e-06</v>
+        <v>3.699854995447122e-05</v>
       </c>
     </row>
     <row r="57">
@@ -1399,13 +1399,13 @@
         <v>0.44588</v>
       </c>
       <c r="C57" t="n">
-        <v>0.006016241386532784</v>
+        <v>0.002586627379059792</v>
       </c>
       <c r="D57" t="n">
         <v>0.008930504600148286</v>
       </c>
       <c r="E57" t="n">
-        <v>8.492930078232554e-06</v>
+        <v>4.024477819624548e-05</v>
       </c>
     </row>
     <row r="58">
@@ -1416,13 +1416,13 @@
         <v>0.45743</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.01221109740436077</v>
+        <v>0.002082491293549538</v>
       </c>
       <c r="D58" t="n">
         <v>0.008642215669082135</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0004348606661390248</v>
+        <v>4.302998388295653e-05</v>
       </c>
     </row>
     <row r="59">
@@ -1433,13 +1433,13 @@
         <v>0.46898</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.03347946330904961</v>
+        <v>0.001541757956147194</v>
       </c>
       <c r="D59" t="n">
         <v>0.008348701113469824</v>
       </c>
       <c r="E59" t="n">
-        <v>0.00174959533895732</v>
+        <v>4.633447514702137e-05</v>
       </c>
     </row>
     <row r="60">
@@ -1450,13 +1450,13 @@
         <v>0.48053</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.05945826694369316</v>
+        <v>0.001283252611756325</v>
       </c>
       <c r="D60" t="n">
         <v>0.008042294100334852</v>
       </c>
       <c r="E60" t="n">
-        <v>0.004556325741258553</v>
+        <v>4.568464184432583e-05</v>
       </c>
     </row>
     <row r="61">
@@ -1467,13 +1467,13 @@
         <v>0.49208</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.06064988300204277</v>
+        <v>0.001058334484696388</v>
       </c>
       <c r="D61" t="n">
         <v>0.007726468833800537</v>
       </c>
       <c r="E61" t="n">
-        <v>0.004675325490379034</v>
+        <v>4.44640156977026e-05</v>
       </c>
     </row>
     <row r="62">
@@ -1484,13 +1484,13 @@
         <v>0.50363</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.05296946689486504</v>
+        <v>0.0008313599973917007</v>
       </c>
       <c r="D62" t="n">
         <v>0.007405495682209102</v>
       </c>
       <c r="E62" t="n">
-        <v>0.003645136106183102</v>
+        <v>4.321926000238957e-05</v>
       </c>
     </row>
     <row r="63">
@@ -1501,13 +1501,13 @@
         <v>0.5157</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.06330062448978424</v>
+        <v>0.0005526486784219742</v>
       </c>
       <c r="D63" t="n">
         <v>0.007072564193310123</v>
       </c>
       <c r="E63" t="n">
-        <v>0.004952385685426401</v>
+        <v>4.250929832127919e-05</v>
       </c>
     </row>
     <row r="64">
@@ -1518,13 +1518,13 @@
         <v>0.52777</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.07454468309879303</v>
+        <v>0.0002837721258401871</v>
       </c>
       <c r="D64" t="n">
         <v>0.00674091320933669</v>
       </c>
       <c r="E64" t="n">
-        <v>0.006607348167168231</v>
+        <v>4.169467097217839e-05</v>
       </c>
     </row>
     <row r="65">
@@ -1535,13 +1535,13 @@
         <v>0.53984</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.06824828684329987</v>
+        <v>0.0001567844301462173</v>
       </c>
       <c r="D65" t="n">
         <v>0.006417462197855993</v>
       </c>
       <c r="E65" t="n">
-        <v>0.005574974079876867</v>
+        <v>3.919608611109546e-05</v>
       </c>
     </row>
     <row r="66">
@@ -1552,13 +1552,13 @@
         <v>0.55191</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.04166818782687187</v>
+        <v>-5.880557000637054e-05</v>
       </c>
       <c r="D66" t="n">
         <v>0.006107678664090732</v>
       </c>
       <c r="E66" t="n">
-        <v>0.002282533418962283</v>
+        <v>3.802552780936813e-05</v>
       </c>
     </row>
     <row r="67">
@@ -1569,13 +1569,13 @@
         <v>0.56398</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.02499700896441936</v>
+        <v>-0.0002695675939321518</v>
       </c>
       <c r="D67" t="n">
         <v>0.005814615892772368</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0009493562263403155</v>
+        <v>3.701728869988797e-05</v>
       </c>
     </row>
     <row r="68">
@@ -1586,13 +1586,13 @@
         <v>0.57652</v>
       </c>
       <c r="C68" t="n">
-        <v>0.05095194652676582</v>
+        <v>-0.0005179997533559799</v>
       </c>
       <c r="D68" t="n">
         <v>0.0055114694491683</v>
       </c>
       <c r="E68" t="n">
-        <v>0.002064836957039666</v>
+        <v>3.635449886418878e-05</v>
       </c>
     </row>
     <row r="69">
@@ -1603,13 +1603,13 @@
         <v>0.58906</v>
       </c>
       <c r="C69" t="n">
-        <v>0.1123514026403427</v>
+        <v>-0.000790303573012352</v>
       </c>
       <c r="D69" t="n">
         <v>0.005231351025806199</v>
       </c>
       <c r="E69" t="n">
-        <v>0.01147470545790097</v>
+        <v>3.62603241074726e-05</v>
       </c>
     </row>
     <row r="70">
@@ -1620,13 +1620,13 @@
         <v>0.6016100000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>0.1602148860692978</v>
+        <v>-0.000997668132185936</v>
       </c>
       <c r="D70" t="n">
         <v>0.004966909049659527</v>
       </c>
       <c r="E70" t="n">
-        <v>0.02410193436869013</v>
+        <v>3.557618095819156e-05</v>
       </c>
     </row>
     <row r="71">
@@ -1637,13 +1637,13 @@
         <v>0.61415</v>
       </c>
       <c r="C71" t="n">
-        <v>0.2208344787359238</v>
+        <v>-0.001311814412474632</v>
       </c>
       <c r="D71" t="n">
         <v>0.004713889965087027</v>
       </c>
       <c r="E71" t="n">
-        <v>0.04670810889065312</v>
+        <v>3.630911324576575e-05</v>
       </c>
     </row>
     <row r="72">
@@ -1654,13 +1654,13 @@
         <v>0.62669</v>
       </c>
       <c r="C72" t="n">
-        <v>0.2468938678503036</v>
+        <v>-0.001715308055281639</v>
       </c>
       <c r="D72" t="n">
         <v>0.004464704382695131</v>
       </c>
       <c r="E72" t="n">
-        <v>0.05877189929960445</v>
+        <v>3.819255373354758e-05</v>
       </c>
     </row>
     <row r="73">
@@ -1671,13 +1671,13 @@
         <v>0.63966</v>
       </c>
       <c r="C73" t="n">
-        <v>0.1968836635351181</v>
+        <v>-0.002277141436934471</v>
       </c>
       <c r="D73" t="n">
         <v>0.004206465599486074</v>
       </c>
       <c r="E73" t="n">
-        <v>0.03712450260432672</v>
+        <v>4.2037160202722e-05</v>
       </c>
     </row>
     <row r="74">
@@ -1688,13 +1688,13 @@
         <v>0.65262</v>
       </c>
       <c r="C74" t="n">
-        <v>0.1752173751592636</v>
+        <v>-0.002912228927016258</v>
       </c>
       <c r="D74" t="n">
         <v>0.003950116415473106</v>
       </c>
       <c r="E74" t="n">
-        <v>0.02933247391761249</v>
+        <v>4.709178359958547e-05</v>
       </c>
     </row>
     <row r="75">
@@ -1705,13 +1705,13 @@
         <v>0.6655800000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>0.1496343463659286</v>
+        <v>-0.003045683726668358</v>
       </c>
       <c r="D75" t="n">
         <v>0.003696352135299198</v>
       </c>
       <c r="E75" t="n">
-        <v>0.02129789816005923</v>
+        <v>4.545504756405661e-05</v>
       </c>
     </row>
     <row r="76">
@@ -1722,13 +1722,13 @@
         <v>0.67855</v>
       </c>
       <c r="C76" t="n">
-        <v>0.1405958980321884</v>
+        <v>-0.003259709104895592</v>
       </c>
       <c r="D76" t="n">
         <v>0.003449397849606407</v>
       </c>
       <c r="E76" t="n">
-        <v>0.01880916251233097</v>
+        <v>4.501211612694708e-05</v>
       </c>
     </row>
     <row r="77">
@@ -1739,13 +1739,13 @@
         <v>0.6915100000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>0.1352338641881943</v>
+        <v>-0.002753829583525658</v>
       </c>
       <c r="D77" t="n">
         <v>0.003211820379634865</v>
       </c>
       <c r="E77" t="n">
-        <v>0.01742982005138918</v>
+        <v>3.558897948295714e-05</v>
       </c>
     </row>
     <row r="78">
@@ -1756,13 +1756,13 @@
         <v>0.7048300000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>0.1470665782690048</v>
+        <v>-0.00428440235555172</v>
       </c>
       <c r="D78" t="n">
         <v>0.002976724668475933</v>
       </c>
       <c r="E78" t="n">
-        <v>0.02076188591062185</v>
+        <v>5.272396565906467e-05</v>
       </c>
     </row>
     <row r="79">
@@ -1773,13 +1773,13 @@
         <v>0.71816</v>
       </c>
       <c r="C79" t="n">
-        <v>0.2105698436498642</v>
+        <v>-0.006619920954108238</v>
       </c>
       <c r="D79" t="n">
         <v>0.00274985470137797</v>
       </c>
       <c r="E79" t="n">
-        <v>0.04318914780654894</v>
+        <v>8.779269583414199e-05</v>
       </c>
     </row>
     <row r="80">
@@ -1790,13 +1790,13 @@
         <v>0.73148</v>
       </c>
       <c r="C80" t="n">
-        <v>0.2665143013000488</v>
+        <v>-0.004166832193732262</v>
       </c>
       <c r="D80" t="n">
         <v>0.002531762765598264</v>
       </c>
       <c r="E80" t="n">
-        <v>0.06968678065109268</v>
+        <v>4.487117442916832e-05</v>
       </c>
     </row>
     <row r="81">
@@ -1807,13 +1807,13 @@
         <v>0.7448</v>
       </c>
       <c r="C81" t="n">
-        <v>0.3004786968231201</v>
+        <v>-0.005228174850344658</v>
       </c>
       <c r="D81" t="n">
         <v>0.00232400661790889</v>
       </c>
       <c r="E81" t="n">
-        <v>0.08889621929136549</v>
+        <v>5.703544492943231e-05</v>
       </c>
     </row>
     <row r="82">
@@ -1824,13 +1824,13 @@
         <v>0.75812</v>
       </c>
       <c r="C82" t="n">
-        <v>0.3202743530273438</v>
+        <v>0.001584203913807869</v>
       </c>
       <c r="D82" t="n">
         <v>0.002127162796568808</v>
       </c>
       <c r="E82" t="n">
-        <v>0.1012176346517369</v>
+        <v>2.948043483690072e-07</v>
       </c>
     </row>
     <row r="83">
@@ -1841,13 +1841,13 @@
         <v>0.77173</v>
       </c>
       <c r="C83" t="n">
-        <v>0.354041576385498</v>
+        <v>-0.002292541787028313</v>
       </c>
       <c r="D83" t="n">
         <v>0.001930736590671328</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1239820435010181</v>
+        <v>1.783608025554531e-05</v>
       </c>
     </row>
     <row r="84">
@@ -1858,13 +1858,13 @@
         <v>0.7853399999999999</v>
       </c>
       <c r="C84" t="n">
-        <v>0.3334722518920898</v>
+        <v>-0.004543380811810493</v>
       </c>
       <c r="D84" t="n">
         <v>0.001737202160718254</v>
       </c>
       <c r="E84" t="n">
-        <v>0.1100481432202756</v>
+        <v>3.944572247481803e-05</v>
       </c>
     </row>
     <row r="85">
@@ -1875,13 +1875,13 @@
         <v>0.79895</v>
       </c>
       <c r="C85" t="n">
-        <v>0.3094062805175781</v>
+        <v>-0.00607447512447834</v>
       </c>
       <c r="D85" t="n">
         <v>0.001549327833389645</v>
       </c>
       <c r="E85" t="n">
-        <v>0.09477590331599468</v>
+        <v>5.812237154039664e-05</v>
       </c>
     </row>
   </sheetData>
